--- a/output_24_racks.xlsx
+++ b/output_24_racks.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,43 +423,665 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.145201197586727</v>
+        <v>1.023487795575896</v>
       </c>
       <c r="B1" t="n">
-        <v>3.525911030000102</v>
+        <v>2.29913530440268</v>
       </c>
       <c r="C1" t="n">
-        <v>18.80004925559751</v>
+        <v>6.468367808631402</v>
       </c>
       <c r="D1" t="n">
-        <v>14.0539692015645</v>
+        <v>18.11382789190627</v>
       </c>
       <c r="E1" t="n">
-        <v>16.11536180242145</v>
+        <v>9.107385901174148</v>
       </c>
       <c r="F1" t="n">
-        <v>9.520017961690792</v>
+        <v>9.822517456870901</v>
       </c>
       <c r="G1" t="n">
-        <v>1.145201197586727</v>
+        <v>5.878701771826123</v>
       </c>
       <c r="H1" t="n">
-        <v>3.525911030000102</v>
+        <v>1.023487795575896</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7635430894473553</v>
+        <v>2.29913530440268</v>
       </c>
       <c r="J1" t="n">
-        <v>20</v>
+        <v>11.02781430942063</v>
       </c>
       <c r="K1" t="n">
         <v>20.40816326530612</v>
       </c>
       <c r="L1" t="n">
-        <v>18.41312531791227</v>
+        <v>20</v>
+      </c>
+      <c r="M1" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N1" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.08945713583387</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>